--- a/data/Input_Data.xlsx
+++ b/data/Input_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025-2026\Testing\doan\Submission2\source\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A43B9AA-BE9E-4263-BF3B-E08A79D7F282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F62EB8-A701-4EF4-BB01-2A818FE1DB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2559,7 +2559,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
